--- a/★23沿道応援席通過予想計算シート.xlsx
+++ b/★23沿道応援席通過予想計算シート.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://toyotajp.sharepoint.com/sites/msteams_adb3a2/Shared Documents/部共用/部親睦会/部 親睦会/23年度親睦会/40_駅伝/12_全社大会関係/6.当日関係_選手側資料/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="427" documentId="13_ncr:1_{734F7F6C-ABED-4B05-9D80-A3764BC45345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B3E8EDB-F687-47C4-AB64-CEF0FED761DF}"/>
+  <xr:revisionPtr revIDLastSave="494" documentId="13_ncr:1_{734F7F6C-ABED-4B05-9D80-A3764BC45345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2A51CECE-EDF7-43B1-A197-2C4C4BA3B001}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{A5E8F9D9-6D97-4060-B7A6-9C28661A03D0}"/>
+    <workbookView xWindow="22230" yWindow="510" windowWidth="22170" windowHeight="13290" xr2:uid="{A5E8F9D9-6D97-4060-B7A6-9C28661A03D0}"/>
   </bookViews>
   <sheets>
     <sheet name="沿道通過予想時刻" sheetId="2" r:id="rId1"/>
     <sheet name="競技場入場予想時刻" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">沿道通過予想時刻!$A$2:$R$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">沿道通過予想時刻!$A$2:$R$32</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">競技場入場予想時刻!$A$2:$S$31</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">沿道通過予想時刻!$A$1:$K$32</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">競技場入場予想時刻!$A$1:$K$31</definedName>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="199">
   <si>
     <t>沿道通過予想計算シート</t>
   </si>
@@ -1077,71 +1077,10 @@
     <t>①+9分50秒</t>
   </si>
   <si>
-    <t>⑩+9分20秒</t>
-  </si>
-  <si>
-    <t>⑭+9分50秒</t>
-  </si>
-  <si>
-    <t>⑰+10分10秒</t>
-  </si>
-  <si>
-    <t>(24)+10分0秒</t>
-  </si>
-  <si>
     <t>③+13分10秒</t>
   </si>
   <si>
-    <t>⑨+13分50秒</t>
-  </si>
-  <si>
-    <t>⑬+15分20秒</t>
-  </si>
-  <si>
-    <t>⑱+12分40秒</t>
-  </si>
-  <si>
-    <t>(23)+13分50秒</t>
-  </si>
-  <si>
-    <t>(27)+12分10秒</t>
-  </si>
-  <si>
     <t>④+12分0秒</t>
-  </si>
-  <si>
-    <t>⑫+12分50秒</t>
-  </si>
-  <si>
-    <t>⑯+12分20秒</t>
-  </si>
-  <si>
-    <t>(21)+14分10秒</t>
-  </si>
-  <si>
-    <t>(25)+12分40秒</t>
-  </si>
-  <si>
-    <t>②+12分30秒</t>
-  </si>
-  <si>
-    <t>⑥+12分30秒</t>
-  </si>
-  <si>
-    <t>⑪+12分30秒</t>
-  </si>
-  <si>
-    <t>⑮+12分30秒</t>
-  </si>
-  <si>
-    <t>競技場入場予想計算シート</t>
-    <rPh sb="0" eb="3">
-      <t>キョウギジョウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ニュウジョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <r>
@@ -1206,6 +1145,245 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>斎藤秀樹</t>
+    <rPh sb="0" eb="2">
+      <t>サイトウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒデキ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>山田芳幸</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヨシユキ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>中川清治</t>
+    <rPh sb="0" eb="2">
+      <t>ナカガワ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セイジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>伊藤太一</t>
+    <rPh sb="0" eb="2">
+      <t>イトウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイチ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>瀧　俊貴</t>
+    <rPh sb="0" eb="1">
+      <t>タキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トシキ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>葛谷雄太</t>
+    <rPh sb="0" eb="2">
+      <t>クズヤ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ユウタ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>張　晗</t>
+    <rPh sb="0" eb="1">
+      <t>チョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>②+13分50秒</t>
+  </si>
+  <si>
+    <t>⑪+14分50秒</t>
+  </si>
+  <si>
+    <t>(22)</t>
+  </si>
+  <si>
+    <t>(21)</t>
+  </si>
+  <si>
+    <t>(25)</t>
+  </si>
+  <si>
+    <t>(26)</t>
+  </si>
+  <si>
+    <t>(29)</t>
+  </si>
+  <si>
+    <t>⑦+12分40秒</t>
+  </si>
+  <si>
+    <t>⑯+13分0秒</t>
+  </si>
+  <si>
+    <t>⑳+14分30秒</t>
+  </si>
+  <si>
+    <t>(24)+12分40秒</t>
+  </si>
+  <si>
+    <t>⑩+12分50秒</t>
+  </si>
+  <si>
+    <t>⑭+12分20秒</t>
+  </si>
+  <si>
+    <t>⑲+14分10秒</t>
+  </si>
+  <si>
+    <t>(23)+12分40秒</t>
+  </si>
+  <si>
+    <t>⑧+13分50秒</t>
+  </si>
+  <si>
+    <t>⑫+15分20秒</t>
+  </si>
+  <si>
+    <t>⑰+12分40秒</t>
+  </si>
+  <si>
+    <t>(21)+13分50秒</t>
+  </si>
+  <si>
+    <t>(26)+12分10秒</t>
+  </si>
+  <si>
+    <t>⑤+10分0秒</t>
+  </si>
+  <si>
+    <t>⑨+9分20秒</t>
+  </si>
+  <si>
+    <t>⑬+9分50秒</t>
+  </si>
+  <si>
+    <t>⑮+10分10秒</t>
+  </si>
+  <si>
+    <t>⑱+10分10秒</t>
+  </si>
+  <si>
+    <t>(22)+10分0秒</t>
+  </si>
+  <si>
+    <r>
+      <t>精度　⇒　〇：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t>±30</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="HGPｺﾞｼｯｸM"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>以内、△：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t>±1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="HGPｺﾞｼｯｸM"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>分以内、×：未知</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>セイド</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イナイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>フン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>イナイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ミチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>競技場入場予想シート</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="HGPｺﾞｼｯｸM"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>※沿道通過ではありません！中継時刻でもありません！</t>
+    </r>
+    <rPh sb="0" eb="3">
+      <t>キョウギジョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニュウジョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>エンドウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ツウカ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>チュウケイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジコク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -1216,7 +1394,7 @@
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="178" formatCode="m:ss"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1327,6 +1505,22 @@
     <font>
       <b/>
       <sz val="8"/>
+      <name val="HGPｺﾞｼｯｸM"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="HGPｺﾞｼｯｸM"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
       <name val="HGPｺﾞｼｯｸM"/>
       <family val="3"/>
       <charset val="128"/>
@@ -1922,9 +2116,6 @@
     <xf numFmtId="20" fontId="10" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1951,6 +2142,9 @@
     </xf>
     <xf numFmtId="20" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2278,84 +2472,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>798791</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>77881</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1015440</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>335617</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="テキスト ボックス 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBE1879C-356A-2B70-A9EC-C65FB29D9C9D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2524497" y="2117352"/>
-          <a:ext cx="3499972" cy="605118"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
-            <a:t>ドラフト：</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
-            <a:t>TQM</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
-            <a:t>未反映</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2658,8 +2774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{100F117A-A694-4933-A4C4-7DAF3E4885A4}">
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -4576,7 +4692,7 @@
     </row>
     <row r="33" ht="15" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <autoFilter ref="A2:R25" xr:uid="{100F117A-A694-4933-A4C4-7DAF3E4885A4}">
+  <autoFilter ref="A2:R32" xr:uid="{100F117A-A694-4933-A4C4-7DAF3E4885A4}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:R32">
       <sortCondition ref="L2:L25"/>
     </sortState>
@@ -4592,10 +4708,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB64BAF3-4E2A-4DBF-B9BC-F6B3DE696985}">
-  <dimension ref="A1:S32"/>
+  <dimension ref="A1:S38"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -4618,16 +4734,17 @@
     <col min="16" max="16" width="11.625" style="25" customWidth="1"/>
     <col min="17" max="17" width="13" style="36" customWidth="1"/>
     <col min="18" max="18" width="12.875" style="24" customWidth="1"/>
-    <col min="19" max="19" width="7.625" style="99" customWidth="1"/>
+    <col min="19" max="19" width="7.625" style="98" customWidth="1"/>
     <col min="20" max="16384" width="9" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="H1" s="78" t="s">
-        <v>124</v>
+      <c r="A1" s="107" t="s">
+        <v>198</v>
+      </c>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:19" s="3" customFormat="1" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -4653,7 +4770,7 @@
         <v>126</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>6</v>
@@ -4662,7 +4779,7 @@
         <v>156</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="L2" s="37" t="s">
         <v>85</v>
@@ -4685,7 +4802,7 @@
       <c r="R2" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="S2" s="100" t="s">
+      <c r="S2" s="99" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4697,7 +4814,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D3" s="18">
         <f>0.06+0.8+0.8</f>
@@ -4712,7 +4829,7 @@
       <c r="G3" s="80" t="s">
         <v>127</v>
       </c>
-      <c r="H3" s="104">
+      <c r="H3" s="103">
         <v>0.41537037037037039</v>
       </c>
       <c r="I3" s="11" t="s">
@@ -4739,7 +4856,7 @@
         <v>①</v>
       </c>
       <c r="P3" s="23">
-        <f t="shared" ref="P3:P31" si="0">E3*2.85</f>
+        <f>E3*2.85</f>
         <v>6.2973484848484864E-3</v>
       </c>
       <c r="Q3" s="38">
@@ -4749,7 +4866,7 @@
         <f>$S3-($E3*0.35)</f>
         <v>1.2594696969696971E-2</v>
       </c>
-      <c r="S3" s="100">
+      <c r="S3" s="99">
         <v>1.3368055555555557E-2</v>
       </c>
     </row>
@@ -4767,12 +4884,13 @@
         <v>0.8</v>
       </c>
       <c r="E4" s="91">
-        <f>S4/2.85</f>
-        <v>3.0458089668615983E-3</v>
-      </c>
-      <c r="F4" s="92"/>
+        <v>2.5584795321637425E-3</v>
+      </c>
+      <c r="F4" s="92" t="s">
+        <v>164</v>
+      </c>
       <c r="G4" s="93"/>
-      <c r="H4" s="101">
+      <c r="H4" s="100">
         <v>0.41594907407407411</v>
       </c>
       <c r="I4" s="94" t="s">
@@ -4785,32 +4903,32 @@
         <v>13</v>
       </c>
       <c r="L4" s="38">
-        <v>0.41594907407407411</v>
+        <v>0.41542824074074075</v>
       </c>
       <c r="M4" s="24">
         <f>$S4-($E4*0.35)</f>
-        <v>7.6145224171539965E-3</v>
+        <v>6.3961988304093564E-3</v>
       </c>
       <c r="N4" s="61">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O4" s="3" t="str">
         <f>A3&amp;"+"&amp;MINUTE(M4)&amp;"分"&amp;ROUNDDOWN(SECOND(M4),-1)&amp;"秒"</f>
-        <v>①+10分50秒</v>
+        <v>①+9分10秒</v>
       </c>
       <c r="P4" s="23">
-        <f t="shared" si="0"/>
-        <v>8.6805555555555559E-3</v>
+        <f>E4*2.85</f>
+        <v>7.2916666666666668E-3</v>
       </c>
       <c r="Q4" s="38">
-        <v>0.41594907407407411</v>
+        <v>0.41542824074074075</v>
       </c>
       <c r="R4" s="24">
         <f>$S4-($E4*0.35)</f>
-        <v>7.6145224171539965E-3</v>
-      </c>
-      <c r="S4" s="99">
-        <v>8.6805555555555559E-3</v>
+        <v>6.3961988304093564E-3</v>
+      </c>
+      <c r="S4" s="98">
+        <v>7.2916666666666659E-3</v>
       </c>
     </row>
     <row r="5" spans="1:19" s="3" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -4826,7 +4944,7 @@
       <c r="D5" s="52">
         <v>0.8</v>
       </c>
-      <c r="E5" s="105">
+      <c r="E5" s="104">
         <v>3.1130268199233719E-3</v>
       </c>
       <c r="F5" s="54" t="s">
@@ -4835,7 +4953,7 @@
       <c r="G5" s="82" t="s">
         <v>129</v>
       </c>
-      <c r="H5" s="103">
+      <c r="H5" s="102">
         <v>0.41627314814814814</v>
       </c>
       <c r="I5" s="56" t="s">
@@ -4855,13 +4973,13 @@
         <v>7.9382183908045991E-3</v>
       </c>
       <c r="N5" s="61">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O5" s="3" t="s">
         <v>14</v>
       </c>
       <c r="P5" s="23">
-        <f t="shared" si="0"/>
+        <f>E5*2.85</f>
         <v>8.8721264367816102E-3</v>
       </c>
       <c r="Q5" s="38">
@@ -4871,7 +4989,7 @@
         <f>$S5-($E5*0.35)</f>
         <v>7.9382183908045991E-3</v>
       </c>
-      <c r="S5" s="100">
+      <c r="S5" s="99">
         <v>9.0277777777777787E-3</v>
       </c>
     </row>
@@ -4897,7 +5015,7 @@
       <c r="G6" s="83" t="s">
         <v>130</v>
       </c>
-      <c r="H6" s="102">
+      <c r="H6" s="101">
         <v>0.41642361111111109</v>
       </c>
       <c r="I6" s="46" t="s">
@@ -4917,13 +5035,13 @@
         <v>8.0908764367816095E-3</v>
       </c>
       <c r="N6" s="61">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O6" s="3" t="s">
         <v>17</v>
       </c>
       <c r="P6" s="23">
-        <f t="shared" si="0"/>
+        <f>E6*2.85</f>
         <v>9.0427442528735642E-3</v>
       </c>
       <c r="Q6" s="38">
@@ -4933,13 +5051,13 @@
         <f>$S6-($E6*0.35)</f>
         <v>8.0908764367816095E-3</v>
       </c>
-      <c r="S6" s="100">
+      <c r="S6" s="99">
         <v>9.2013888888888892E-3</v>
       </c>
     </row>
     <row r="7" spans="1:19" s="3" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="26" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B7" s="26" t="s">
         <v>9</v>
@@ -4975,160 +5093,161 @@
         <v>0.42224669945064686</v>
       </c>
       <c r="M7" s="24">
-        <f t="shared" ref="M7:M31" si="1">$E6*0.3+$E7*2.55</f>
+        <f>$E6*0.3+$E7*2.55</f>
         <v>7.1653181084896144E-3</v>
       </c>
       <c r="N7" s="61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O7" s="3" t="str">
-        <f t="shared" ref="O7:O31" si="2">A6&amp;"+"&amp;MINUTE(M7)&amp;"分"&amp;ROUNDDOWN(SECOND(M7),-1)&amp;"秒"</f>
+        <f>A6&amp;"+"&amp;MINUTE(M7)&amp;"分"&amp;ROUNDDOWN(SECOND(M7),-1)&amp;"秒"</f>
         <v>④+10分10秒</v>
       </c>
       <c r="P7" s="23">
-        <f t="shared" si="0"/>
+        <f>E7*2.85</f>
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="Q7" s="38">
-        <f t="shared" ref="Q7:Q31" si="3">Q6+R7</f>
+        <f>Q6+R7</f>
         <v>0.42358892921960073</v>
       </c>
       <c r="R7" s="24">
-        <f t="shared" ref="R7:R31" si="4">$E6*0.3+$E7*2.55</f>
+        <f>$E6*0.3+$E7*2.55</f>
         <v>7.1653181084896144E-3</v>
       </c>
-      <c r="S7" s="100">
+      <c r="S7" s="99">
         <v>6.9444444444444441E-3</v>
       </c>
     </row>
     <row r="8" spans="1:19" s="3" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="88" t="s">
+      <c r="A8" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="88" t="s">
-        <v>157</v>
-      </c>
-      <c r="C8" s="89" t="s">
+      <c r="B8" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="90">
+      <c r="D8" s="42">
         <v>0.8</v>
       </c>
-      <c r="E8" s="91">
-        <f>S8/2.85</f>
-        <v>3.0458089668615983E-3</v>
-      </c>
-      <c r="F8" s="92"/>
-      <c r="G8" s="93"/>
-      <c r="H8" s="97" t="s">
+      <c r="E8" s="43">
+        <v>2.9282407407407412E-3</v>
+      </c>
+      <c r="F8" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="83" t="s">
+        <v>133</v>
+      </c>
+      <c r="H8" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="94" t="s">
-        <v>175</v>
-      </c>
-      <c r="J8" s="95" t="s">
-        <v>32</v>
-      </c>
-      <c r="K8" s="96" t="s">
+      <c r="I8" s="46" t="s">
+        <v>161</v>
+      </c>
+      <c r="J8" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" s="48" t="s">
         <v>13</v>
       </c>
       <c r="L8" s="38">
-        <v>0.42462962962962969</v>
+        <v>0.42484249281609193</v>
       </c>
       <c r="M8" s="24">
-        <f t="shared" si="1"/>
-        <v>8.4978070175438583E-3</v>
+        <f>$E7*0.3+$E8*2.55</f>
+        <v>8.1980080409356729E-3</v>
       </c>
       <c r="N8" s="61">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="O8" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>⑦+12分10秒</v>
+        <f>A7&amp;"+"&amp;MINUTE(M8)&amp;"分"&amp;ROUNDDOWN(SECOND(M8),-1)&amp;"秒"</f>
+        <v>⑤+11分40秒</v>
       </c>
       <c r="P8" s="23">
-        <f t="shared" si="0"/>
-        <v>8.6805555555555559E-3</v>
+        <f>E8*2.85</f>
+        <v>8.3454861111111125E-3</v>
       </c>
       <c r="Q8" s="38">
-        <f t="shared" si="3"/>
-        <v>0.43208673623714461</v>
+        <f>Q7+R8</f>
+        <v>0.43178693726053641</v>
       </c>
       <c r="R8" s="24">
-        <f t="shared" si="4"/>
-        <v>8.4978070175438583E-3</v>
+        <f>$E7*0.3+$E8*2.55</f>
+        <v>8.1980080409356729E-3</v>
       </c>
       <c r="S8" s="99">
-        <v>8.6805555555555559E-3</v>
+        <v>8.3333333333333332E-3</v>
       </c>
     </row>
     <row r="9" spans="1:19" s="3" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="41" t="s">
+      <c r="A9" s="88" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="88" t="s">
+        <v>157</v>
+      </c>
+      <c r="C9" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="42">
+      <c r="D9" s="90">
         <v>0.8</v>
       </c>
-      <c r="E9" s="43">
-        <v>2.9282407407407412E-3</v>
-      </c>
-      <c r="F9" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="G9" s="83" t="s">
-        <v>133</v>
-      </c>
-      <c r="H9" s="49" t="s">
+      <c r="E9" s="91">
+        <v>3.496588693957115E-3</v>
+      </c>
+      <c r="F9" s="92" t="s">
+        <v>165</v>
+      </c>
+      <c r="G9" s="93"/>
+      <c r="H9" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="46" t="s">
-        <v>170</v>
-      </c>
-      <c r="J9" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="K9" s="48" t="s">
+      <c r="I9" s="94" t="s">
+        <v>171</v>
+      </c>
+      <c r="J9" s="95" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="96" t="s">
         <v>13</v>
       </c>
       <c r="L9" s="38">
-        <v>0.42484249281609193</v>
+        <v>0.4251120857699805</v>
       </c>
       <c r="M9" s="24">
-        <f t="shared" si="1"/>
-        <v>8.3807565789473688E-3</v>
+        <f>$E8*0.3+$E9*2.55</f>
+        <v>9.7947733918128665E-3</v>
       </c>
       <c r="N9" s="61">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="O9" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>⑥+12分0秒</v>
+        <f>A8&amp;"+"&amp;MINUTE(M9)&amp;"分"&amp;ROUNDDOWN(SECOND(M9),-1)&amp;"秒"</f>
+        <v>⑥+14分0秒</v>
       </c>
       <c r="P9" s="23">
-        <f t="shared" si="0"/>
-        <v>8.3454861111111125E-3</v>
+        <f>E9*2.85</f>
+        <v>9.9652777777777778E-3</v>
       </c>
       <c r="Q9" s="38">
-        <f t="shared" si="3"/>
-        <v>0.44046749281609199</v>
+        <f>Q8+R9</f>
+        <v>0.4415817106523493</v>
       </c>
       <c r="R9" s="24">
-        <f t="shared" si="4"/>
-        <v>8.3807565789473688E-3</v>
-      </c>
-      <c r="S9" s="100">
-        <v>8.3333333333333332E-3</v>
+        <f>$E8*0.3+$E9*2.55</f>
+        <v>9.7947733918128665E-3</v>
+      </c>
+      <c r="S9" s="98">
+        <v>9.9652777777777778E-3</v>
       </c>
     </row>
     <row r="10" spans="1:19" s="3" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="50" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B10" s="50" t="s">
         <v>15</v>
@@ -5152,7 +5271,7 @@
         <v>22</v>
       </c>
       <c r="I10" s="56" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="J10" s="57" t="s">
         <v>12</v>
@@ -5164,35 +5283,35 @@
         <v>0.42543987783155207</v>
       </c>
       <c r="M10" s="24">
-        <f t="shared" si="1"/>
-        <v>9.1112938596491222E-3</v>
+        <f>$E9*0.3+$E10*2.55</f>
+        <v>9.2817982456140334E-3</v>
       </c>
       <c r="N10" s="61">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O10" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>⑧+13分0秒</v>
+        <f>A9&amp;"+"&amp;MINUTE(M10)&amp;"分"&amp;ROUNDDOWN(SECOND(M10),-1)&amp;"秒"</f>
+        <v>⑦+13分20秒</v>
       </c>
       <c r="P10" s="23">
-        <f t="shared" si="0"/>
+        <f>E10*2.85</f>
         <v>9.2013888888888892E-3</v>
       </c>
       <c r="Q10" s="38">
-        <f t="shared" si="3"/>
-        <v>0.44957878667574114</v>
+        <f>Q9+R10</f>
+        <v>0.45086350889796334</v>
       </c>
       <c r="R10" s="24">
-        <f t="shared" si="4"/>
-        <v>9.1112938596491222E-3</v>
-      </c>
-      <c r="S10" s="100">
+        <f>$E9*0.3+$E10*2.55</f>
+        <v>9.2817982456140334E-3</v>
+      </c>
+      <c r="S10" s="99">
         <v>9.2013888888888892E-3</v>
       </c>
     </row>
     <row r="11" spans="1:19" s="3" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B11" s="26" t="s">
         <v>9</v>
@@ -5216,7 +5335,7 @@
         <v>22</v>
       </c>
       <c r="I11" s="30" t="s">
-        <v>90</v>
+        <v>191</v>
       </c>
       <c r="J11" s="31" t="s">
         <v>12</v>
@@ -5228,35 +5347,35 @@
         <v>0.42919114389509128</v>
       </c>
       <c r="M11" s="24">
-        <f t="shared" si="1"/>
+        <f>$E10*0.3+$E11*2.55</f>
         <v>7.1820175438596489E-3</v>
       </c>
       <c r="N11" s="61">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O11" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>⑨+10分20秒</v>
+        <f>A10&amp;"+"&amp;MINUTE(M11)&amp;"分"&amp;ROUNDDOWN(SECOND(M11),-1)&amp;"秒"</f>
+        <v>⑧+10分20秒</v>
       </c>
       <c r="P11" s="23">
-        <f t="shared" si="0"/>
+        <f>E11*2.85</f>
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="Q11" s="38">
-        <f t="shared" si="3"/>
-        <v>0.4567608042196008</v>
+        <f>Q10+R11</f>
+        <v>0.458045526441823</v>
       </c>
       <c r="R11" s="24">
-        <f t="shared" si="4"/>
+        <f>$E10*0.3+$E11*2.55</f>
         <v>7.1820175438596489E-3</v>
       </c>
-      <c r="S11" s="100">
+      <c r="S11" s="99">
         <v>6.9444444444444441E-3</v>
       </c>
     </row>
     <row r="12" spans="1:19" s="3" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="40" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B12" s="40" t="s">
         <v>18</v>
@@ -5280,7 +5399,7 @@
         <v>22</v>
       </c>
       <c r="I12" s="46" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="J12" s="47" t="s">
         <v>12</v>
@@ -5292,29 +5411,29 @@
         <v>0.43317710538919135</v>
       </c>
       <c r="M12" s="24">
-        <f t="shared" si="1"/>
+        <f>$E11*0.3+$E12*2.55</f>
         <v>8.1871345029239755E-3</v>
       </c>
       <c r="N12" s="61">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O12" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>⑩+11分40秒</v>
+        <f>A11&amp;"+"&amp;MINUTE(M12)&amp;"分"&amp;ROUNDDOWN(SECOND(M12),-1)&amp;"秒"</f>
+        <v>⑨+11分40秒</v>
       </c>
       <c r="P12" s="23">
-        <f t="shared" si="0"/>
+        <f>E12*2.85</f>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="Q12" s="38">
-        <f t="shared" si="3"/>
-        <v>0.46494793872252477</v>
+        <f>Q11+R12</f>
+        <v>0.46623266094474697</v>
       </c>
       <c r="R12" s="24">
-        <f t="shared" si="4"/>
+        <f>$E11*0.3+$E12*2.55</f>
         <v>8.1871345029239755E-3</v>
       </c>
-      <c r="S12" s="99">
+      <c r="S12" s="98">
         <v>8.3333333333333332E-3</v>
       </c>
     </row>
@@ -5332,16 +5451,17 @@
         <v>0.8</v>
       </c>
       <c r="E13" s="91">
-        <f>S13/2.85</f>
         <v>3.0458089668615983E-3</v>
       </c>
-      <c r="F13" s="92"/>
+      <c r="F13" s="92" t="s">
+        <v>166</v>
+      </c>
       <c r="G13" s="93"/>
       <c r="H13" s="97" t="s">
         <v>22</v>
       </c>
       <c r="I13" s="94" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="J13" s="95" t="s">
         <v>32</v>
@@ -5350,38 +5470,38 @@
         <v>13</v>
       </c>
       <c r="L13" s="38">
-        <v>0.43331018518518527</v>
+        <v>0.43392787524366472</v>
       </c>
       <c r="M13" s="24">
-        <f t="shared" si="1"/>
+        <f>$E12*0.3+$E13*2.55</f>
         <v>8.6440058479532143E-3</v>
       </c>
       <c r="N13" s="61">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O13" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>⑫+12分20秒</v>
+        <f>A12&amp;"+"&amp;MINUTE(M13)&amp;"分"&amp;ROUNDDOWN(SECOND(M13),-1)&amp;"秒"</f>
+        <v>⑩+12分20秒</v>
       </c>
       <c r="P13" s="23">
-        <f t="shared" si="0"/>
+        <f>E13*2.85</f>
         <v>8.6805555555555559E-3</v>
       </c>
       <c r="Q13" s="38">
-        <f t="shared" si="3"/>
-        <v>0.47359194457047799</v>
+        <f>Q12+R13</f>
+        <v>0.47487666679270019</v>
       </c>
       <c r="R13" s="24">
-        <f t="shared" si="4"/>
+        <f>$E12*0.3+$E13*2.55</f>
         <v>8.6440058479532143E-3</v>
       </c>
-      <c r="S13" s="99">
+      <c r="S13" s="98">
         <v>8.6805555555555559E-3</v>
       </c>
     </row>
     <row r="14" spans="1:19" s="3" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="50" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B14" s="50" t="s">
         <v>15</v>
@@ -5405,7 +5525,7 @@
         <v>22</v>
       </c>
       <c r="I14" s="56" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="J14" s="57" t="s">
         <v>27</v>
@@ -5417,35 +5537,35 @@
         <v>0.43511504230523629</v>
       </c>
       <c r="M14" s="24">
-        <f t="shared" si="1"/>
+        <f>$E13*0.3+$E14*2.55</f>
         <v>9.620339912280701E-3</v>
       </c>
       <c r="N14" s="61">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O14" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f>A13&amp;"+"&amp;MINUTE(M14)&amp;"分"&amp;ROUNDDOWN(SECOND(M14),-1)&amp;"秒"</f>
         <v>⑪+13分50秒</v>
       </c>
       <c r="P14" s="23">
-        <f t="shared" si="0"/>
+        <f>E14*2.85</f>
         <v>9.7309027777777793E-3</v>
       </c>
       <c r="Q14" s="38">
-        <f t="shared" si="3"/>
-        <v>0.48321228448275866</v>
+        <f>Q13+R14</f>
+        <v>0.48449700670498086</v>
       </c>
       <c r="R14" s="24">
-        <f t="shared" si="4"/>
+        <f>$E13*0.3+$E14*2.55</f>
         <v>9.620339912280701E-3</v>
       </c>
-      <c r="S14" s="100">
+      <c r="S14" s="99">
         <v>9.7222222222222224E-3</v>
       </c>
     </row>
     <row r="15" spans="1:19" s="3" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="26" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B15" s="26" t="s">
         <v>9</v>
@@ -5469,7 +5589,7 @@
         <v>22</v>
       </c>
       <c r="I15" s="30" t="s">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="J15" s="31" t="s">
         <v>12</v>
@@ -5481,224 +5601,225 @@
         <v>0.43566957956760588</v>
       </c>
       <c r="M15" s="24">
-        <f t="shared" si="1"/>
+        <f>$E14*0.3+$E15*2.55</f>
         <v>6.7717470760233923E-3</v>
       </c>
       <c r="N15" s="61">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O15" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>⑬+9分40秒</v>
+        <f>A14&amp;"+"&amp;MINUTE(M15)&amp;"分"&amp;ROUNDDOWN(SECOND(M15),-1)&amp;"秒"</f>
+        <v>⑫+9分40秒</v>
       </c>
       <c r="P15" s="23">
-        <f t="shared" si="0"/>
+        <f>E15*2.85</f>
         <v>6.4236111111111126E-3</v>
       </c>
       <c r="Q15" s="38">
-        <f t="shared" si="3"/>
-        <v>0.48998403155878206</v>
+        <f>Q14+R15</f>
+        <v>0.49126875378100426</v>
       </c>
       <c r="R15" s="24">
-        <f t="shared" si="4"/>
+        <f>$E14*0.3+$E15*2.55</f>
         <v>6.7717470760233923E-3</v>
       </c>
-      <c r="S15" s="100">
+      <c r="S15" s="99">
         <v>6.4236111111111117E-3</v>
       </c>
     </row>
     <row r="16" spans="1:19" s="3" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="88" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="88" t="s">
-        <v>157</v>
-      </c>
-      <c r="C16" s="89" t="s">
+      <c r="A16" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="90">
+      <c r="D16" s="42">
         <v>0.8</v>
       </c>
-      <c r="E16" s="91">
-        <f>S16/2.85</f>
-        <v>3.0458089668615983E-3</v>
-      </c>
-      <c r="F16" s="92"/>
-      <c r="G16" s="93"/>
-      <c r="H16" s="97" t="s">
+      <c r="E16" s="43">
+        <v>3.1676413255360626E-3</v>
+      </c>
+      <c r="F16" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="G16" s="83" t="s">
+        <v>141</v>
+      </c>
+      <c r="H16" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="I16" s="94" t="s">
-        <v>177</v>
-      </c>
-      <c r="J16" s="95" t="s">
-        <v>32</v>
-      </c>
-      <c r="K16" s="96" t="s">
+      <c r="I16" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="J16" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="K16" s="48" t="s">
         <v>13</v>
       </c>
       <c r="L16" s="38">
-        <v>0.44199074074074085</v>
+        <v>0.44213178375176443</v>
       </c>
       <c r="M16" s="24">
-        <f t="shared" si="1"/>
-        <v>8.4429824561403494E-3</v>
+        <f>$E15*0.3+$E16*2.55</f>
+        <v>8.753654970760234E-3</v>
       </c>
       <c r="N16" s="61">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="O16" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>⑭+12分0秒</v>
+        <f>A15&amp;"+"&amp;MINUTE(M16)&amp;"分"&amp;ROUNDDOWN(SECOND(M16),-1)&amp;"秒"</f>
+        <v>⑬+12分30秒</v>
       </c>
       <c r="P16" s="23">
-        <f t="shared" si="0"/>
-        <v>8.6805555555555559E-3</v>
+        <f>E16*2.85</f>
+        <v>9.0277777777777787E-3</v>
       </c>
       <c r="Q16" s="38">
-        <f t="shared" si="3"/>
-        <v>0.4984270140149224</v>
+        <f>Q15+R16</f>
+        <v>0.50002240875176451</v>
       </c>
       <c r="R16" s="24">
-        <f t="shared" si="4"/>
-        <v>8.4429824561403494E-3</v>
-      </c>
-      <c r="S16" s="99">
-        <v>8.6805555555555559E-3</v>
+        <f>$E15*0.3+$E16*2.55</f>
+        <v>8.753654970760234E-3</v>
+      </c>
+      <c r="S16" s="98">
+        <v>9.0277777777777787E-3</v>
       </c>
     </row>
     <row r="17" spans="1:19" s="3" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="42">
+      <c r="A17" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="28">
         <v>0.8</v>
       </c>
-      <c r="E17" s="43">
-        <v>3.1676413255360626E-3</v>
-      </c>
-      <c r="F17" s="44" t="s">
-        <v>67</v>
-      </c>
-      <c r="G17" s="83" t="s">
-        <v>141</v>
-      </c>
-      <c r="H17" s="49" t="s">
+      <c r="E17" s="34">
+        <v>2.4366471734892786E-3</v>
+      </c>
+      <c r="F17" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" s="84" t="s">
+        <v>142</v>
+      </c>
+      <c r="H17" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="I17" s="46" t="s">
-        <v>171</v>
-      </c>
-      <c r="J17" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="K17" s="48" t="s">
+      <c r="I17" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="J17" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="K17" s="32" t="s">
         <v>13</v>
       </c>
       <c r="L17" s="38">
-        <v>0.44213178375176443</v>
+        <v>0.44255919945064681</v>
       </c>
       <c r="M17" s="24">
-        <f t="shared" si="1"/>
-        <v>8.9912280701754388E-3</v>
+        <f>$E16*0.3+$E17*2.55</f>
+        <v>7.163742690058479E-3</v>
       </c>
       <c r="N17" s="61">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="O17" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>⑮+12分50秒</v>
+        <f>A16&amp;"+"&amp;MINUTE(M17)&amp;"分"&amp;ROUNDDOWN(SECOND(M17),-1)&amp;"秒"</f>
+        <v>⑭+10分10秒</v>
       </c>
       <c r="P17" s="23">
-        <f t="shared" si="0"/>
-        <v>9.0277777777777787E-3</v>
+        <f>E17*2.85</f>
+        <v>6.9444444444444441E-3</v>
       </c>
       <c r="Q17" s="38">
-        <f t="shared" si="3"/>
-        <v>0.50741824208509789</v>
+        <f>Q16+R17</f>
+        <v>0.507186151441823</v>
       </c>
       <c r="R17" s="24">
-        <f t="shared" si="4"/>
-        <v>8.9912280701754388E-3</v>
+        <f>$E16*0.3+$E17*2.55</f>
+        <v>7.163742690058479E-3</v>
       </c>
       <c r="S17" s="99">
-        <v>9.0277777777777787E-3</v>
+        <v>6.9444444444444441E-3</v>
       </c>
     </row>
     <row r="18" spans="1:19" s="3" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="28">
+      <c r="A18" s="88" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="88" t="s">
+        <v>157</v>
+      </c>
+      <c r="C18" s="89" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="90">
         <v>0.8</v>
       </c>
-      <c r="E18" s="34">
-        <v>2.4366471734892786E-3</v>
-      </c>
-      <c r="F18" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="G18" s="84" t="s">
-        <v>142</v>
-      </c>
-      <c r="H18" s="33" t="s">
+      <c r="E18" s="91">
+        <v>3.7158869395711495E-3</v>
+      </c>
+      <c r="F18" s="92" t="s">
+        <v>167</v>
+      </c>
+      <c r="G18" s="93"/>
+      <c r="H18" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="I18" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="J18" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="K18" s="32" t="s">
+      <c r="I18" s="94" t="s">
+        <v>172</v>
+      </c>
+      <c r="J18" s="95" t="s">
+        <v>32</v>
+      </c>
+      <c r="K18" s="96" t="s">
         <v>13</v>
       </c>
       <c r="L18" s="38">
-        <v>0.44255919945064681</v>
+        <v>0.4443171296296296</v>
       </c>
       <c r="M18" s="24">
-        <f t="shared" si="1"/>
-        <v>7.163742690058479E-3</v>
+        <f>$E17*0.3+$E18*2.55</f>
+        <v>1.0206505847953214E-2</v>
       </c>
       <c r="N18" s="61">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="O18" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>⑯+10分10秒</v>
+        <f>A17&amp;"+"&amp;MINUTE(M18)&amp;"分"&amp;ROUNDDOWN(SECOND(M18),-1)&amp;"秒"</f>
+        <v>⑮+14分40秒</v>
       </c>
       <c r="P18" s="23">
-        <f t="shared" si="0"/>
-        <v>6.9444444444444441E-3</v>
+        <f>E18*2.85</f>
+        <v>1.0590277777777777E-2</v>
       </c>
       <c r="Q18" s="38">
-        <f t="shared" si="3"/>
-        <v>0.51458198477515638</v>
+        <f>Q17+R18</f>
+        <v>0.51739265728977624</v>
       </c>
       <c r="R18" s="24">
-        <f t="shared" si="4"/>
-        <v>7.163742690058479E-3</v>
-      </c>
-      <c r="S18" s="100">
-        <v>6.9444444444444441E-3</v>
+        <f>$E17*0.3+$E18*2.55</f>
+        <v>1.0206505847953214E-2</v>
+      </c>
+      <c r="S18" s="98">
+        <v>1.0590277777777777E-2</v>
       </c>
     </row>
     <row r="19" spans="1:19" s="3" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="50" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B19" s="50" t="s">
         <v>15</v>
@@ -5722,7 +5843,7 @@
         <v>22</v>
       </c>
       <c r="I19" s="56" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="J19" s="57" t="s">
         <v>32</v>
@@ -5734,35 +5855,35 @@
         <v>0.44577019581400823</v>
       </c>
       <c r="M19" s="24">
-        <f t="shared" si="1"/>
-        <v>1.0361842105263159E-2</v>
+        <f>$E18*0.3+$E19*2.55</f>
+        <v>1.074561403508772E-2</v>
       </c>
       <c r="N19" s="61">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O19" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>⑰+14分50秒</v>
+        <f>A18&amp;"+"&amp;MINUTE(M19)&amp;"分"&amp;ROUNDDOWN(SECOND(M19),-1)&amp;"秒"</f>
+        <v>⑯+15分20秒</v>
       </c>
       <c r="P19" s="23">
-        <f t="shared" si="0"/>
+        <f>E19*2.85</f>
         <v>1.0763888888888891E-2</v>
       </c>
       <c r="Q19" s="38">
-        <f t="shared" si="3"/>
-        <v>0.52494382688041952</v>
+        <f>Q18+R19</f>
+        <v>0.52813827132486391</v>
       </c>
       <c r="R19" s="24">
-        <f t="shared" si="4"/>
-        <v>1.0361842105263159E-2</v>
-      </c>
-      <c r="S19" s="100">
+        <f>$E18*0.3+$E19*2.55</f>
+        <v>1.074561403508772E-2</v>
+      </c>
+      <c r="S19" s="99">
         <v>1.0763888888888891E-2</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="26" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B20" s="26" t="s">
         <v>9</v>
@@ -5786,7 +5907,7 @@
         <v>22</v>
       </c>
       <c r="I20" s="30" t="s">
-        <v>162</v>
+        <v>194</v>
       </c>
       <c r="J20" s="31" t="s">
         <v>12</v>
@@ -5798,160 +5919,161 @@
         <v>0.44965898015240119</v>
       </c>
       <c r="M20" s="24">
-        <f t="shared" si="1"/>
+        <f>$E19*0.3+$E20*2.55</f>
         <v>7.5018274853801171E-3</v>
       </c>
       <c r="N20" s="61">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O20" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>⑱+10分40秒</v>
+        <f>A19&amp;"+"&amp;MINUTE(M20)&amp;"分"&amp;ROUNDDOWN(SECOND(M20),-1)&amp;"秒"</f>
+        <v>⑰+10分40秒</v>
       </c>
       <c r="P20" s="23">
-        <f t="shared" si="0"/>
+        <f>E20*2.85</f>
         <v>7.1180555555555554E-3</v>
       </c>
       <c r="Q20" s="38">
-        <f t="shared" si="3"/>
-        <v>0.5324456543657996</v>
+        <f>Q19+R20</f>
+        <v>0.53564009881024399</v>
       </c>
       <c r="R20" s="24">
-        <f t="shared" si="4"/>
+        <f>$E19*0.3+$E20*2.55</f>
         <v>7.5018274853801171E-3</v>
       </c>
-      <c r="S20" s="100">
+      <c r="S20" s="99">
         <v>7.1180555555555554E-3</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="88" t="s">
+      <c r="A21" s="75" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="88" t="s">
-        <v>157</v>
-      </c>
-      <c r="C21" s="89" t="s">
+      <c r="B21" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="90">
+      <c r="D21" s="42">
         <v>0.8</v>
       </c>
-      <c r="E21" s="91">
-        <f>S21/2.85</f>
-        <v>3.0458089668615983E-3</v>
-      </c>
-      <c r="F21" s="92"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="97" t="s">
+      <c r="E21" s="43">
+        <v>3.0092592592592588E-3</v>
+      </c>
+      <c r="F21" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="G21" s="83" t="s">
+        <v>146</v>
+      </c>
+      <c r="H21" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="I21" s="94" t="s">
-        <v>178</v>
-      </c>
-      <c r="J21" s="95" t="s">
-        <v>32</v>
-      </c>
-      <c r="K21" s="96" t="s">
+      <c r="I21" s="46" t="s">
+        <v>183</v>
+      </c>
+      <c r="J21" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="K21" s="48" t="s">
         <v>13</v>
       </c>
       <c r="L21" s="38">
-        <v>0.45067129629629643</v>
+        <v>0.45075568726053633</v>
       </c>
       <c r="M21" s="24">
-        <f t="shared" si="1"/>
-        <v>8.5160818713450274E-3</v>
+        <f>$E20*0.3+$E21*2.55</f>
+        <v>8.4228801169590629E-3</v>
       </c>
       <c r="N21" s="61">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="O21" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>⑳+12分10秒</v>
+        <f>A20&amp;"+"&amp;MINUTE(M21)&amp;"分"&amp;ROUNDDOWN(SECOND(M21),-1)&amp;"秒"</f>
+        <v>⑱+12分0秒</v>
       </c>
       <c r="P21" s="23">
-        <f t="shared" si="0"/>
-        <v>8.6805555555555559E-3</v>
+        <f>E21*2.85</f>
+        <v>8.5763888888888886E-3</v>
       </c>
       <c r="Q21" s="38">
-        <f t="shared" si="3"/>
-        <v>0.54096173623714461</v>
+        <f>Q20+R21</f>
+        <v>0.54406297892720301</v>
       </c>
       <c r="R21" s="24">
-        <f t="shared" si="4"/>
-        <v>8.5160818713450274E-3</v>
-      </c>
-      <c r="S21" s="99">
-        <v>8.6805555555555559E-3</v>
+        <f>$E20*0.3+$E21*2.55</f>
+        <v>8.4228801169590629E-3</v>
+      </c>
+      <c r="S21" s="98">
+        <v>8.564814814814815E-3</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="75" t="s">
-        <v>104</v>
-      </c>
-      <c r="B22" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="41" t="s">
+      <c r="A22" s="88" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="88" t="s">
+        <v>157</v>
+      </c>
+      <c r="C22" s="89" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="42">
+      <c r="D22" s="90">
         <v>0.8</v>
       </c>
-      <c r="E22" s="43">
-        <v>3.0092592592592588E-3</v>
-      </c>
-      <c r="F22" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="G22" s="83" t="s">
-        <v>146</v>
-      </c>
-      <c r="H22" s="49" t="s">
+      <c r="E22" s="91">
+        <v>3.1270305393112413E-3</v>
+      </c>
+      <c r="F22" s="92" t="s">
+        <v>168</v>
+      </c>
+      <c r="G22" s="93"/>
+      <c r="H22" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="I22" s="46" t="s">
-        <v>172</v>
-      </c>
-      <c r="J22" s="47" t="s">
+      <c r="I22" s="94" t="s">
+        <v>179</v>
+      </c>
+      <c r="J22" s="95" t="s">
+        <v>32</v>
+      </c>
+      <c r="K22" s="96" t="s">
+        <v>13</v>
+      </c>
+      <c r="L22" s="38">
+        <v>0.45340582358674464</v>
+      </c>
+      <c r="M22" s="24">
+        <f>$E21*0.3+$E22*2.55</f>
+        <v>8.8767056530214428E-3</v>
+      </c>
+      <c r="N22" s="61">
         <v>27</v>
       </c>
-      <c r="K22" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="L22" s="38">
-        <v>0.45075568726053633</v>
-      </c>
-      <c r="M22" s="24">
-        <f t="shared" si="1"/>
-        <v>8.587353801169588E-3</v>
-      </c>
-      <c r="N22" s="61">
-        <v>21</v>
-      </c>
       <c r="O22" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>⑲+12分20秒</v>
+        <f>A21&amp;"+"&amp;MINUTE(M22)&amp;"分"&amp;ROUNDDOWN(SECOND(M22),-1)&amp;"秒"</f>
+        <v>⑲+12分40秒</v>
       </c>
       <c r="P22" s="23">
-        <f t="shared" si="0"/>
-        <v>8.5763888888888886E-3</v>
+        <f>E22*2.85</f>
+        <v>8.9120370370370378E-3</v>
       </c>
       <c r="Q22" s="38">
-        <f t="shared" si="3"/>
-        <v>0.5495490900383142</v>
+        <f>Q21+R22</f>
+        <v>0.55293968458022447</v>
       </c>
       <c r="R22" s="24">
-        <f t="shared" si="4"/>
-        <v>8.587353801169588E-3</v>
-      </c>
-      <c r="S22" s="99">
-        <v>8.564814814814815E-3</v>
+        <f>$E21*0.3+$E22*2.55</f>
+        <v>8.8767056530214428E-3</v>
+      </c>
+      <c r="S22" s="98">
+        <v>8.9120370370370378E-3</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="74" t="s">
-        <v>101</v>
+        <v>174</v>
       </c>
       <c r="B23" s="50" t="s">
         <v>15</v>
@@ -5975,7 +6097,7 @@
         <v>22</v>
       </c>
       <c r="I23" s="56" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="J23" s="57" t="s">
         <v>12</v>
@@ -5987,35 +6109,35 @@
         <v>0.45467004961517782</v>
       </c>
       <c r="M23" s="24">
-        <f t="shared" si="1"/>
-        <v>8.6695906432748531E-3</v>
+        <f>$E22*0.3+$E23*2.55</f>
+        <v>8.7049220272904463E-3</v>
       </c>
       <c r="N23" s="61">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O23" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>(21)+12分20秒</v>
+        <f>A22&amp;"+"&amp;MINUTE(M23)&amp;"分"&amp;ROUNDDOWN(SECOND(M23),-1)&amp;"秒"</f>
+        <v>⑳+12分30秒</v>
       </c>
       <c r="P23" s="23">
-        <f t="shared" si="0"/>
+        <f>E23*2.85</f>
         <v>8.6805555555555559E-3</v>
       </c>
       <c r="Q23" s="38">
-        <f t="shared" si="3"/>
-        <v>0.55821868068158909</v>
+        <f>Q22+R23</f>
+        <v>0.56164460660751492</v>
       </c>
       <c r="R23" s="24">
-        <f t="shared" si="4"/>
-        <v>8.6695906432748531E-3</v>
-      </c>
-      <c r="S23" s="100">
+        <f>$E22*0.3+$E23*2.55</f>
+        <v>8.7049220272904463E-3</v>
+      </c>
+      <c r="S23" s="99">
         <v>8.6805555555555559E-3</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="73" t="s">
-        <v>99</v>
+        <v>173</v>
       </c>
       <c r="B24" s="26" t="s">
         <v>9</v>
@@ -6032,14 +6154,14 @@
       <c r="F24" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="G24" s="106" t="s">
+      <c r="G24" s="105" t="s">
         <v>149</v>
       </c>
-      <c r="H24" s="107" t="s">
+      <c r="H24" s="106" t="s">
         <v>22</v>
       </c>
       <c r="I24" s="35" t="s">
-        <v>94</v>
+        <v>195</v>
       </c>
       <c r="J24" s="31" t="s">
         <v>12</v>
@@ -6051,160 +6173,161 @@
         <v>0.45677703570795675</v>
       </c>
       <c r="M24" s="24">
-        <f t="shared" si="1"/>
+        <f>$E23*0.3+$E24*2.55</f>
         <v>7.2825292397660814E-3</v>
       </c>
       <c r="N24" s="61">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O24" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>(23)+10分20秒</v>
+        <f>A23&amp;"+"&amp;MINUTE(M24)&amp;"分"&amp;ROUNDDOWN(SECOND(M24),-1)&amp;"秒"</f>
+        <v>(21)+10分20秒</v>
       </c>
       <c r="P24" s="23">
-        <f t="shared" si="0"/>
+        <f>E24*2.85</f>
         <v>7.1180555555555554E-3</v>
       </c>
       <c r="Q24" s="38">
-        <f t="shared" si="3"/>
-        <v>0.56550120992135522</v>
+        <f>Q23+R24</f>
+        <v>0.56892713584728105</v>
       </c>
       <c r="R24" s="24">
-        <f t="shared" si="4"/>
+        <f>$E23*0.3+$E24*2.55</f>
         <v>7.2825292397660814E-3</v>
       </c>
-      <c r="S24" s="100">
+      <c r="S24" s="99">
         <v>7.1180555555555554E-3</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="98" t="s">
-        <v>107</v>
-      </c>
-      <c r="B25" s="88" t="s">
-        <v>157</v>
-      </c>
-      <c r="C25" s="89" t="s">
+      <c r="A25" s="75" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="90">
+      <c r="D25" s="42">
         <v>0.8</v>
       </c>
-      <c r="E25" s="91">
-        <f>S25/2.85</f>
-        <v>3.0458089668615983E-3</v>
-      </c>
-      <c r="F25" s="92"/>
-      <c r="G25" s="93"/>
-      <c r="H25" s="97" t="s">
+      <c r="E25" s="43">
+        <v>3.5331384015594544E-3</v>
+      </c>
+      <c r="F25" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" s="83" t="s">
+        <v>150</v>
+      </c>
+      <c r="H25" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="I25" s="94" t="s">
-        <v>121</v>
-      </c>
-      <c r="J25" s="95" t="s">
-        <v>32</v>
-      </c>
-      <c r="K25" s="96" t="s">
+      <c r="I25" s="46" t="s">
+        <v>184</v>
+      </c>
+      <c r="J25" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="K25" s="48" t="s">
         <v>13</v>
       </c>
       <c r="L25" s="38">
-        <v>0.45935185185185201</v>
+        <v>0.4606679679622907</v>
       </c>
       <c r="M25" s="24">
-        <f t="shared" si="1"/>
-        <v>8.5160818713450274E-3</v>
+        <f>$E24*0.3+$E25*2.55</f>
+        <v>9.7587719298245605E-3</v>
       </c>
       <c r="N25" s="61">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="O25" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>(24)+12分10秒</v>
+        <f>A24&amp;"+"&amp;MINUTE(M25)&amp;"分"&amp;ROUNDDOWN(SECOND(M25),-1)&amp;"秒"</f>
+        <v>(22)+14分0秒</v>
       </c>
       <c r="P25" s="23">
-        <f t="shared" si="0"/>
-        <v>8.6805555555555559E-3</v>
+        <f>E25*2.85</f>
+        <v>1.0069444444444445E-2</v>
       </c>
       <c r="Q25" s="38">
-        <f t="shared" si="3"/>
-        <v>0.57401729179270022</v>
+        <f>Q24+R25</f>
+        <v>0.5786859077771056</v>
       </c>
       <c r="R25" s="24">
-        <f t="shared" si="4"/>
-        <v>8.5160818713450274E-3</v>
-      </c>
-      <c r="S25" s="99">
-        <v>8.6805555555555559E-3</v>
+        <f>$E24*0.3+$E25*2.55</f>
+        <v>9.7587719298245605E-3</v>
+      </c>
+      <c r="S25" s="98">
+        <v>1.0069444444444445E-2</v>
       </c>
     </row>
     <row r="26" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="75" t="s">
-        <v>105</v>
-      </c>
-      <c r="B26" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="41" t="s">
+      <c r="A26" s="88" t="s">
+        <v>99</v>
+      </c>
+      <c r="B26" s="88" t="s">
+        <v>157</v>
+      </c>
+      <c r="C26" s="89" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="42">
+      <c r="D26" s="90">
         <v>0.8</v>
       </c>
-      <c r="E26" s="43">
-        <v>3.5331384015594544E-3</v>
-      </c>
-      <c r="F26" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="G26" s="83" t="s">
-        <v>150</v>
-      </c>
-      <c r="H26" s="49" t="s">
+      <c r="E26" s="91">
+        <v>3.614359974009097E-3</v>
+      </c>
+      <c r="F26" s="92" t="s">
+        <v>169</v>
+      </c>
+      <c r="G26" s="93"/>
+      <c r="H26" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="I26" s="46" t="s">
-        <v>173</v>
-      </c>
-      <c r="J26" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="K26" s="48" t="s">
+      <c r="I26" s="94" t="s">
+        <v>180</v>
+      </c>
+      <c r="J26" s="95" t="s">
+        <v>32</v>
+      </c>
+      <c r="K26" s="96" t="s">
         <v>13</v>
       </c>
       <c r="L26" s="38">
-        <v>0.4606679679622907</v>
+        <v>0.46356055068226121</v>
       </c>
       <c r="M26" s="24">
-        <f t="shared" si="1"/>
-        <v>9.9232456140350873E-3</v>
+        <f>$E25*0.3+$E26*2.55</f>
+        <v>1.0276559454191033E-2</v>
       </c>
       <c r="N26" s="61">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="O26" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>(22)+14分10秒</v>
+        <f>A25&amp;"+"&amp;MINUTE(M26)&amp;"分"&amp;ROUNDDOWN(SECOND(M26),-1)&amp;"秒"</f>
+        <v>(23)+14分40秒</v>
       </c>
       <c r="P26" s="23">
-        <f t="shared" si="0"/>
-        <v>1.0069444444444445E-2</v>
+        <f>E26*2.85</f>
+        <v>1.0300925925925927E-2</v>
       </c>
       <c r="Q26" s="38">
-        <f t="shared" si="3"/>
-        <v>0.58394053740673535</v>
+        <f>Q25+R26</f>
+        <v>0.58896246723129664</v>
       </c>
       <c r="R26" s="24">
-        <f t="shared" si="4"/>
-        <v>9.9232456140350873E-3</v>
-      </c>
-      <c r="S26" s="99">
-        <v>1.0069444444444445E-2</v>
+        <f>$E25*0.3+$E26*2.55</f>
+        <v>1.0276559454191033E-2</v>
+      </c>
+      <c r="S26" s="98">
+        <v>1.0300925925925927E-2</v>
       </c>
     </row>
     <row r="27" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="73" t="s">
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="B27" s="26" t="s">
         <v>9</v>
@@ -6228,7 +6351,7 @@
         <v>22</v>
       </c>
       <c r="I27" s="35" t="s">
-        <v>163</v>
+        <v>196</v>
       </c>
       <c r="J27" s="31" t="s">
         <v>12</v>
@@ -6240,35 +6363,35 @@
         <v>0.46373439858353649</v>
       </c>
       <c r="M27" s="24">
-        <f t="shared" si="1"/>
-        <v>7.2680353901996356E-3</v>
+        <f>$E26*0.3+$E27*2.55</f>
+        <v>7.2924018619345285E-3</v>
       </c>
       <c r="N27" s="61">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O27" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>(25)+10分20秒</v>
+        <f>A26&amp;"+"&amp;MINUTE(M27)&amp;"分"&amp;ROUNDDOWN(SECOND(M27),-1)&amp;"秒"</f>
+        <v>(24)+10分30秒</v>
       </c>
       <c r="P27" s="23">
-        <f t="shared" si="0"/>
+        <f>E27*2.85</f>
         <v>6.9384578544061295E-3</v>
       </c>
       <c r="Q27" s="38">
-        <f t="shared" si="3"/>
-        <v>0.59120857279693495</v>
+        <f>Q26+R27</f>
+        <v>0.59625486909323122</v>
       </c>
       <c r="R27" s="24">
-        <f t="shared" si="4"/>
-        <v>7.2680353901996356E-3</v>
-      </c>
-      <c r="S27" s="100">
+        <f>$E26*0.3+$E27*2.55</f>
+        <v>7.2924018619345285E-3</v>
+      </c>
+      <c r="S27" s="99">
         <v>7.0601851851851841E-3</v>
       </c>
     </row>
     <row r="28" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="74" t="s">
-        <v>102</v>
+        <v>176</v>
       </c>
       <c r="B28" s="50" t="s">
         <v>15</v>
@@ -6292,7 +6415,7 @@
         <v>51</v>
       </c>
       <c r="I28" s="56" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="J28" s="57" t="s">
         <v>27</v>
@@ -6304,160 +6427,161 @@
         <v>0.46428262271459303</v>
       </c>
       <c r="M28" s="24">
-        <f t="shared" si="1"/>
+        <f>$E27*0.3+$E28*2.55</f>
         <v>9.4291943940310527E-3</v>
       </c>
       <c r="N28" s="61">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O28" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>(28)+13分30秒</v>
+        <f>A27&amp;"+"&amp;MINUTE(M28)&amp;"分"&amp;ROUNDDOWN(SECOND(M28),-1)&amp;"秒"</f>
+        <v>(25)+13分30秒</v>
       </c>
       <c r="P28" s="23">
-        <f t="shared" si="0"/>
+        <f>E28*2.85</f>
         <v>9.7222222222222224E-3</v>
       </c>
       <c r="Q28" s="38">
-        <f t="shared" si="3"/>
-        <v>0.60063776719096595</v>
+        <f>Q27+R28</f>
+        <v>0.60568406348726223</v>
       </c>
       <c r="R28" s="24">
-        <f t="shared" si="4"/>
+        <f>$E27*0.3+$E28*2.55</f>
         <v>9.4291943940310527E-3</v>
       </c>
-      <c r="S28" s="100">
+      <c r="S28" s="99">
         <v>9.7222222222222224E-3</v>
       </c>
     </row>
     <row r="29" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="98" t="s">
-        <v>108</v>
-      </c>
-      <c r="B29" s="88" t="s">
-        <v>157</v>
-      </c>
-      <c r="C29" s="89" t="s">
+      <c r="A29" s="75" t="s">
+        <v>102</v>
+      </c>
+      <c r="B29" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="D29" s="90">
+      <c r="D29" s="42">
         <v>0.8</v>
       </c>
-      <c r="E29" s="91">
-        <f>S29/2.85</f>
-        <v>3.0458089668615983E-3</v>
-      </c>
-      <c r="F29" s="92"/>
-      <c r="G29" s="93"/>
-      <c r="H29" s="97" t="s">
+      <c r="E29" s="43">
+        <v>3.0332056194125163E-3</v>
+      </c>
+      <c r="F29" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="G29" s="83" t="s">
+        <v>154</v>
+      </c>
+      <c r="H29" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="I29" s="94" t="s">
-        <v>122</v>
-      </c>
-      <c r="J29" s="95" t="s">
-        <v>32</v>
-      </c>
-      <c r="K29" s="96" t="s">
+      <c r="I29" s="46" t="s">
+        <v>185</v>
+      </c>
+      <c r="J29" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="K29" s="48" t="s">
         <v>13</v>
       </c>
       <c r="L29" s="38">
-        <v>0.46803240740740759</v>
+        <v>0.46946258381226047</v>
       </c>
       <c r="M29" s="24">
-        <f t="shared" si="1"/>
-        <v>8.7902046783625721E-3</v>
+        <f>$E28*0.3+$E29*2.55</f>
+        <v>8.7580661423674131E-3</v>
       </c>
       <c r="N29" s="61">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="O29" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>(27)+12分30秒</v>
+        <f>A28&amp;"+"&amp;MINUTE(M29)&amp;"分"&amp;ROUNDDOWN(SECOND(M29),-1)&amp;"秒"</f>
+        <v>(26)+12分30秒</v>
       </c>
       <c r="P29" s="23">
-        <f t="shared" si="0"/>
-        <v>8.6805555555555559E-3</v>
+        <f>E29*2.85</f>
+        <v>8.644636015325672E-3</v>
       </c>
       <c r="Q29" s="38">
-        <f t="shared" si="3"/>
-        <v>0.60942797186932851</v>
+        <f>Q28+R29</f>
+        <v>0.61444212962962963</v>
       </c>
       <c r="R29" s="24">
-        <f t="shared" si="4"/>
-        <v>8.7902046783625721E-3</v>
-      </c>
-      <c r="S29" s="99">
-        <v>8.6805555555555559E-3</v>
+        <f>$E28*0.3+$E29*2.55</f>
+        <v>8.7580661423674131E-3</v>
+      </c>
+      <c r="S29" s="98">
+        <v>8.7962962962962968E-3</v>
       </c>
     </row>
     <row r="30" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="75" t="s">
-        <v>106</v>
-      </c>
-      <c r="B30" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" s="41" t="s">
+      <c r="A30" s="88" t="s">
+        <v>100</v>
+      </c>
+      <c r="B30" s="88" t="s">
+        <v>157</v>
+      </c>
+      <c r="C30" s="89" t="s">
         <v>64</v>
       </c>
-      <c r="D30" s="42">
+      <c r="D30" s="90">
         <v>0.8</v>
       </c>
-      <c r="E30" s="43">
-        <v>3.0332056194125163E-3</v>
-      </c>
-      <c r="F30" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="G30" s="83" t="s">
-        <v>154</v>
-      </c>
-      <c r="H30" s="49" t="s">
+      <c r="E30" s="91">
+        <v>3.0661143599740089E-3</v>
+      </c>
+      <c r="F30" s="92" t="s">
+        <v>170</v>
+      </c>
+      <c r="G30" s="93"/>
+      <c r="H30" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="I30" s="46" t="s">
-        <v>174</v>
-      </c>
-      <c r="J30" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="K30" s="48" t="s">
+      <c r="I30" s="94" t="s">
+        <v>181</v>
+      </c>
+      <c r="J30" s="95" t="s">
+        <v>32</v>
+      </c>
+      <c r="K30" s="96" t="s">
         <v>13</v>
       </c>
       <c r="L30" s="38">
-        <v>0.46946258381226047</v>
+        <v>0.47246345029239767</v>
       </c>
       <c r="M30" s="24">
-        <f t="shared" si="1"/>
-        <v>8.6484170195603952E-3</v>
+        <f>$E29*0.3+$E30*2.55</f>
+        <v>8.7285533037574775E-3</v>
       </c>
       <c r="N30" s="61">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="O30" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>(26)+12分20秒</v>
+        <f>A29&amp;"+"&amp;MINUTE(M30)&amp;"分"&amp;ROUNDDOWN(SECOND(M30),-1)&amp;"秒"</f>
+        <v>(27)+12分30秒</v>
       </c>
       <c r="P30" s="23">
-        <f t="shared" si="0"/>
-        <v>8.644636015325672E-3</v>
+        <f>E30*2.85</f>
+        <v>8.7384259259259255E-3</v>
       </c>
       <c r="Q30" s="38">
-        <f t="shared" si="3"/>
-        <v>0.61807638888888894</v>
+        <f>Q29+R30</f>
+        <v>0.62317068293338707</v>
       </c>
       <c r="R30" s="24">
-        <f t="shared" si="4"/>
-        <v>8.6484170195603952E-3</v>
-      </c>
-      <c r="S30" s="99">
-        <v>8.7962962962962968E-3</v>
+        <f>$E29*0.3+$E30*2.55</f>
+        <v>8.7285533037574775E-3</v>
+      </c>
+      <c r="S30" s="98">
+        <v>8.7384259259259255E-3</v>
       </c>
     </row>
     <row r="31" spans="1:19" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="74" t="s">
-        <v>103</v>
+        <v>177</v>
       </c>
       <c r="B31" s="50" t="s">
         <v>15</v>
@@ -6481,7 +6605,7 @@
         <v>22</v>
       </c>
       <c r="I31" s="56" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="J31" s="57" t="s">
         <v>12</v>
@@ -6493,29 +6617,29 @@
         <v>0.47277302841634744</v>
       </c>
       <c r="M31" s="24">
-        <f t="shared" si="1"/>
-        <v>8.3769755747126438E-3</v>
+        <f>$E30*0.3+$E31*2.55</f>
+        <v>8.3868481968810919E-3</v>
       </c>
       <c r="N31" s="61">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O31" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>(29)+12分0秒</v>
+        <f>A30&amp;"+"&amp;MINUTE(M31)&amp;"分"&amp;ROUNDDOWN(SECOND(M31),-1)&amp;"秒"</f>
+        <v>(28)+12分0秒</v>
       </c>
       <c r="P31" s="23">
-        <f t="shared" si="0"/>
+        <f>E31*2.85</f>
         <v>8.3454861111111125E-3</v>
       </c>
       <c r="Q31" s="38">
-        <f t="shared" si="3"/>
-        <v>0.62645336446360156</v>
+        <f>Q30+R31</f>
+        <v>0.63155753113026813</v>
       </c>
       <c r="R31" s="24">
-        <f t="shared" si="4"/>
-        <v>8.3769755747126438E-3</v>
-      </c>
-      <c r="S31" s="100">
+        <f>$E30*0.3+$E31*2.55</f>
+        <v>8.3868481968810919E-3</v>
+      </c>
+      <c r="S31" s="99">
         <v>8.4490740740740741E-3</v>
       </c>
     </row>
@@ -6523,8 +6647,7 @@
       <c r="B32" s="1"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="79"/>
+      <c r="G32" s="19"/>
       <c r="L32" s="36"/>
       <c r="M32" s="24"/>
       <c r="N32" s="61"/>
@@ -6532,7 +6655,25 @@
       <c r="P32" s="25"/>
       <c r="Q32" s="36"/>
       <c r="R32" s="24"/>
-      <c r="S32" s="99"/>
+      <c r="S32" s="98"/>
+    </row>
+    <row r="33" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G33" s="19"/>
+    </row>
+    <row r="34" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G34" s="19"/>
+    </row>
+    <row r="35" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G35" s="19"/>
+    </row>
+    <row r="36" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G36" s="19"/>
+    </row>
+    <row r="37" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G37" s="19"/>
+    </row>
+    <row r="38" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G38" s="19"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:S31" xr:uid="{CB64BAF3-4E2A-4DBF-B9BC-F6B3DE696985}">
@@ -6550,6 +6691,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="25ec1c44-e65e-43e7-94fb-6edd69e0929a" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="6e9d908a-9f95-4997-80f1-3523e6bc2e19">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100DA43775712445F4F82775BB460FB3292" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="09a808ee9712a590cf0d17bf7ce69c14">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6e9d908a-9f95-4997-80f1-3523e6bc2e19" xmlns:ns3="25ec1c44-e65e-43e7-94fb-6edd69e0929a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6069a97b30f97a17dc63eddc580728ac" ns2:_="" ns3:_="">
     <xsd:import namespace="6e9d908a-9f95-4997-80f1-3523e6bc2e19"/>
@@ -6798,27 +6959,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="25ec1c44-e65e-43e7-94fb-6edd69e0929a" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="6e9d908a-9f95-4997-80f1-3523e6bc2e19">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{110E6CC9-C263-41C9-A1FC-FA610D21CB93}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3200CDC-9FE8-464C-BD9F-43CB52410D02}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="6e9d908a-9f95-4997-80f1-3523e6bc2e19"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="25ec1c44-e65e-43e7-94fb-6edd69e0929a"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFF9E7B9-5270-47E2-B9DC-2AF3C33F22F4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6835,29 +7001,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3200CDC-9FE8-464C-BD9F-43CB52410D02}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="6e9d908a-9f95-4997-80f1-3523e6bc2e19"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="25ec1c44-e65e-43e7-94fb-6edd69e0929a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{110E6CC9-C263-41C9-A1FC-FA610D21CB93}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>